--- a/Python_Scripts/Radioligand_Binding/data_files/Binding_Printout_Template.xlsx
+++ b/Python_Scripts/Radioligand_Binding/data_files/Binding_Printout_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlalbert\Documents\PDSP\Python_Scripts\Radioligand_Binding\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3537A059-599F-42F6-870E-22A9D065BBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89123AA-B264-4115-B0ED-E7FF4EF638D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Binding Worksheet</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Receptor</t>
   </si>
   <si>
-    <t>Pellets</t>
-  </si>
-  <si>
     <t>Plate</t>
   </si>
   <si>
@@ -100,7 +97,17 @@
     <t>Ligand used (mCi)</t>
   </si>
   <si>
-    <t>Approx. Ligand in Vial (mCi)</t>
+    <t>Ligand in Vial (mCi)</t>
+  </si>
+  <si>
+    <t>Ligand Remaining
+(mCi)</t>
+  </si>
+  <si>
+    <t># of Pellets in Stock</t>
+  </si>
+  <si>
+    <t># of Pellets Needed</t>
   </si>
 </sst>
 </file>
@@ -150,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -215,17 +222,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -359,498 +355,62 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1160,10 +720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,30 +738,35 @@
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1209,24 +777,26 @@
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1235,234 +805,260 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="O3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>23</v>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="7"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>1</v>
+      </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="12"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1470,9 +1066,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="12"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="13"/>
@@ -1485,9 +1081,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="12"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="13"/>
@@ -1500,9 +1096,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="12"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="13"/>
@@ -1515,9 +1111,9 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="12"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="13"/>
@@ -1530,9 +1126,9 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="12"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="13"/>
@@ -1545,9 +1141,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="12"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="13"/>
@@ -1560,9 +1156,9 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="12"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="13"/>
@@ -1575,9 +1171,9 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="12"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="13"/>
@@ -1590,9 +1186,9 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="12"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="13"/>
@@ -1605,9 +1201,9 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="12"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="13"/>
@@ -1620,9 +1216,9 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="12"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="13"/>
@@ -1635,9 +1231,9 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="12"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="13"/>
@@ -1650,9 +1246,9 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="12"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="13"/>
@@ -1665,9 +1261,9 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="12"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="13"/>
@@ -1680,9 +1276,9 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="9"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="14"/>
@@ -1706,240 +1302,38 @@
       <c r="M33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="29">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G2:O2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:M2"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
-  <conditionalFormatting sqref="A15:I15">
-    <cfRule type="expression" dxfId="43" priority="10">
-      <formula>ISBLANK($A$15)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:I16">
-    <cfRule type="expression" dxfId="42" priority="11">
-      <formula>ISBLANK($A$16)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:I17">
-    <cfRule type="expression" dxfId="41" priority="9">
-      <formula>ISBLANK($A$17)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:I18">
-    <cfRule type="expression" dxfId="40" priority="8">
-      <formula>ISBLANK($A$18)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:I19">
-    <cfRule type="expression" dxfId="39" priority="7">
-      <formula>ISBLANK($A$19)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:I20">
-    <cfRule type="expression" dxfId="38" priority="6">
-      <formula>ISBLANK($A$20)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:I21">
-    <cfRule type="expression" dxfId="37" priority="5">
-      <formula>ISBLANK($A$21)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:I22">
-    <cfRule type="expression" dxfId="36" priority="4">
-      <formula>ISBLANK($A$22)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:I23">
-    <cfRule type="expression" dxfId="35" priority="3">
-      <formula>ISBLANK($A$23)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:I24">
-    <cfRule type="expression" dxfId="34" priority="2">
-      <formula>ISBLANK($A$24)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J30">
-    <cfRule type="expression" dxfId="33" priority="1">
-      <formula>ISBLANK(J4)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:M4">
-    <cfRule type="expression" dxfId="32" priority="42">
-      <formula>ISBLANK($J$4)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:M32">
-    <cfRule type="expression" dxfId="31" priority="103">
-      <formula>AND(ISBLANK($J5)=TRUE,ISBLANK($J4)=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:M5">
-    <cfRule type="expression" dxfId="30" priority="41">
-      <formula>ISBLANK($J$5)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:M6">
-    <cfRule type="expression" dxfId="29" priority="40">
-      <formula>ISBLANK($J$6)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:M7">
-    <cfRule type="expression" dxfId="28" priority="39">
-      <formula>ISBLANK($J$7)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:M8">
-    <cfRule type="expression" dxfId="27" priority="38">
-      <formula>ISBLANK($J$8)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:M9">
-    <cfRule type="expression" dxfId="26" priority="37">
-      <formula>ISBLANK($J$9)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:M10">
-    <cfRule type="expression" dxfId="25" priority="36">
-      <formula>ISBLANK($J$10)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:M11">
-    <cfRule type="expression" dxfId="24" priority="35">
-      <formula>ISBLANK($J$11)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:M12">
-    <cfRule type="expression" dxfId="23" priority="34">
-      <formula>ISBLANK($J$12)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:M13">
-    <cfRule type="expression" dxfId="22" priority="33">
-      <formula>ISBLANK($J$13)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:M14">
-    <cfRule type="expression" dxfId="21" priority="32">
-      <formula>ISBLANK($J$14)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:M15">
-    <cfRule type="expression" dxfId="20" priority="31">
-      <formula>ISBLANK($J$15)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:M16">
-    <cfRule type="expression" dxfId="19" priority="30">
-      <formula>ISBLANK($J$16)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:M17">
-    <cfRule type="expression" dxfId="18" priority="29">
-      <formula>ISBLANK($J$17)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:M18">
-    <cfRule type="expression" dxfId="17" priority="28">
-      <formula>ISBLANK($J$18)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:M19">
-    <cfRule type="expression" dxfId="16" priority="27">
-      <formula>ISBLANK($J$19)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:M20">
-    <cfRule type="expression" dxfId="15" priority="26">
-      <formula>ISBLANK($J$20)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:M21">
-    <cfRule type="expression" dxfId="14" priority="25">
-      <formula>ISBLANK($J$21)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:M22">
-    <cfRule type="expression" dxfId="13" priority="24">
-      <formula>ISBLANK($J$22)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:M23">
-    <cfRule type="expression" dxfId="12" priority="23">
-      <formula>ISBLANK($J$23)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:M24">
-    <cfRule type="expression" dxfId="11" priority="22">
-      <formula>ISBLANK($J$24)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:M25">
-    <cfRule type="expression" dxfId="10" priority="21">
-      <formula>ISBLANK($J$25)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:M26">
-    <cfRule type="expression" dxfId="9" priority="20">
-      <formula>ISBLANK($J$26)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:M27">
-    <cfRule type="expression" dxfId="8" priority="19">
-      <formula>ISBLANK($J$27)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:M28">
-    <cfRule type="expression" dxfId="7" priority="18">
-      <formula>ISBLANK($J$28)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:M29">
-    <cfRule type="expression" dxfId="6" priority="17">
-      <formula>ISBLANK($J$29)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:M30">
-    <cfRule type="expression" dxfId="5" priority="16">
-      <formula>ISBLANK($J$30)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:M31">
-    <cfRule type="expression" dxfId="4" priority="15">
-      <formula>ISBLANK($J$31)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:M32">
-    <cfRule type="expression" dxfId="3" priority="14">
-      <formula>ISBLANK($J$32)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:M33">
-    <cfRule type="expression" dxfId="2" priority="13">
-      <formula>ISBLANK($J$33)=FALSE</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="132">
-      <formula>AND(ISBLANK($J$34)=TRUE, ISBLANK($J$33)=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M33">
-    <cfRule type="expression" dxfId="0" priority="43">
-      <formula>ISBLANK(M4)=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup scale="98" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Python_Scripts/Radioligand_Binding/data_files/Binding_Printout_Template.xlsx
+++ b/Python_Scripts/Radioligand_Binding/data_files/Binding_Printout_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlalbert\Documents\PDSP\Python_Scripts\Radioligand_Binding\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89123AA-B264-4115-B0ED-E7FF4EF638D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C22D9F-8F4E-4FE4-913C-C8FBD8CFE3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B:$O</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -382,13 +382,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -400,10 +397,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +726,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="H18" sqref="H18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,23 +748,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -777,21 +777,21 @@
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="10"/>
@@ -850,7 +850,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="19"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="35"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="23"/>
       <c r="L4" s="12"/>
       <c r="M4" s="7"/>
@@ -858,7 +858,7 @@
       <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="5"/>
@@ -867,7 +867,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="19"/>
       <c r="I5" s="24"/>
-      <c r="J5" s="35"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="23"/>
       <c r="L5" s="12"/>
       <c r="M5" s="7"/>
@@ -875,7 +875,7 @@
       <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="5"/>
@@ -884,7 +884,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="19"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="35"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="23"/>
       <c r="L6" s="12"/>
       <c r="M6" s="7"/>
@@ -892,7 +892,7 @@
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="5"/>
@@ -901,7 +901,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="19"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="23"/>
       <c r="L7" s="12"/>
       <c r="M7" s="7"/>
@@ -909,7 +909,7 @@
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="5"/>
@@ -918,7 +918,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="19"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="23"/>
       <c r="L8" s="12"/>
       <c r="M8" s="7"/>
@@ -926,7 +926,7 @@
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="5"/>
@@ -935,7 +935,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="19"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="23"/>
       <c r="L9" s="12"/>
       <c r="M9" s="7"/>
@@ -943,7 +943,7 @@
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="5"/>
@@ -952,7 +952,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="19"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="23"/>
       <c r="L10" s="12"/>
       <c r="M10" s="7"/>
@@ -960,7 +960,7 @@
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="5"/>
@@ -969,7 +969,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="19"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="23"/>
       <c r="L11" s="12"/>
       <c r="M11" s="7"/>
@@ -977,7 +977,7 @@
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="6"/>
@@ -986,7 +986,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="20"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="36"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="23"/>
       <c r="L12" s="12"/>
       <c r="M12" s="7"/>
@@ -994,50 +994,50 @@
       <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28" t="s">
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="7"/>
       <c r="M14" s="13"/>
     </row>
@@ -1051,9 +1051,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="13"/>
@@ -1066,9 +1066,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="13"/>
@@ -1081,9 +1081,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="13"/>
@@ -1096,9 +1096,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="13"/>
@@ -1111,9 +1111,9 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="13"/>
@@ -1126,9 +1126,9 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="13"/>
@@ -1141,9 +1141,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="13"/>
@@ -1156,9 +1156,9 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="13"/>
@@ -1171,9 +1171,9 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="13"/>
@@ -1186,9 +1186,9 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="13"/>
@@ -1201,9 +1201,9 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="13"/>
@@ -1216,9 +1216,9 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="13"/>
@@ -1231,9 +1231,9 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="13"/>
@@ -1246,9 +1246,9 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="13"/>
@@ -1261,9 +1261,9 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="13"/>
@@ -1276,9 +1276,9 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="14"/>
@@ -1303,6 +1303,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="E2:F2"/>
@@ -1316,24 +1332,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="H13:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="98" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Python_Scripts/Radioligand_Binding/data_files/Binding_Printout_Template.xlsx
+++ b/Python_Scripts/Radioligand_Binding/data_files/Binding_Printout_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlalbert\Documents\PDSP\Python_Scripts\Radioligand_Binding\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C22D9F-8F4E-4FE4-913C-C8FBD8CFE3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EA97DC-282E-47AA-BE78-D00CFF1EF956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="6060" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,12 +341,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,6 +381,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,6 +402,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,7 +729,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:J18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,29 +745,29 @@
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" customWidth="1"/>
-    <col min="13" max="13" width="4" customWidth="1"/>
-    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -777,21 +780,21 @@
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -813,19 +816,19 @@
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -834,12 +837,12 @@
       <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="10"/>
@@ -848,201 +851,205 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="23"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="12"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="13"/>
+      <c r="O4" s="36"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="23"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="12"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="13"/>
+      <c r="O5" s="36"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="23"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="12"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="13"/>
+      <c r="O6" s="36"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="23"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="12"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="13"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="23"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="12"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="13"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="23"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="12"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="13"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="23"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="12"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="13"/>
+      <c r="O10" s="36"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="23"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="12"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="13"/>
+      <c r="O11" s="36"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="23"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="12"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="13"/>
+      <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34" t="s">
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="13"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="37"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="13"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="37"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>1</v>
       </c>
       <c r="B15" s="12"/>
@@ -1051,245 +1058,279 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="37"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="37"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="37"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="37"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="37"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="37"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="37"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="37"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="37"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="37"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="37"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="37"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="37"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="37"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="14"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="37"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
